--- a/results/contrastive/evaluation_results_answerdotai_ModernBERT-base.xlsx
+++ b/results/contrastive/evaluation_results_answerdotai_ModernBERT-base.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8402061855670103</v>
+        <v>0.8577319587628865</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8397055927397912</v>
+        <v>0.8571846569195337</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8402061855670103</v>
+        <v>0.8577319587628865</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8426013579551896</v>
+        <v>0.8580502769067422</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7122746046534192</v>
+        <v>0.7427084755641619</v>
       </c>
     </row>
   </sheetData>
